--- a/biology/Zoologie/Engoulevent_de_Horsfield/Engoulevent_de_Horsfield.xlsx
+++ b/biology/Zoologie/Engoulevent_de_Horsfield/Engoulevent_de_Horsfield.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caprimulgus macrurus
 L'Engoulevent de Horsfield (Caprimulgus macrurus) est une espèce d'oiseaux de la famille des Caprimulgidae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend à travers l'Asie du Sud-Est, l'Est du sous-continent indien, la Nouvelle-Guinée et le Nord de l'Australie.
 </t>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'engoulevent de Horsfield mesure de 25 à 27 cm de long[1] et pèse de 55 à 80 g.
-On l'appelle en Thaïlande l'oiseau à longue queue qui attrape les moustiques (นกตบยุงหางยาว, nok top yung hang yaw) et on le nomme en Malaisie l'engoulevent des cimetières (burung tukang kubur) car il est connu comme vivant souvent près des cimetières[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'engoulevent de Horsfield mesure de 25 à 27 cm de long et pèse de 55 à 80 g.
+On l'appelle en Thaïlande l'oiseau à longue queue qui attrape les moustiques (นกตบยุงหางยาว, nok top yung hang yaw) et on le nomme en Malaisie l'engoulevent des cimetières (burung tukang kubur) car il est connu comme vivant souvent près des cimetières.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom normalisé commémore le descripteur de l'espèce, le naturaliste américain Thomas Horsfield.
 </t>
